--- a/export/Gymnázium a ZUŠ Šlapanice.xlsx
+++ b/export/Gymnázium a ZUŠ Šlapanice.xlsx
@@ -662,7 +662,7 @@
         <v>90</v>
       </c>
       <c r="B9" t="n">
-        <v>12727</v>
+        <v>19119</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -695,7 +695,11 @@
       <c r="B10" t="n">
         <v>0</v>
       </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>

--- a/export/Gymnázium a ZUŠ Šlapanice.xlsx
+++ b/export/Gymnázium a ZUŠ Šlapanice.xlsx
@@ -2,8 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2910" yWindow="3735" windowWidth="20910" windowHeight="11835" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cvrček" sheetId="1" state="visible" r:id="rId1"/>
@@ -14,43 +15,63 @@
     <sheet name="Student" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="8">
     <font>
       <name val="Arial"/>
+      <charset val="1"/>
       <family val="2"/>
       <sz val="10"/>
     </font>
     <font>
+      <name val="Arial"/>
+      <family val="0"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="0"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="0"/>
+      <sz val="10"/>
+    </font>
+    <font>
       <name val="arial"/>
+      <charset val="1"/>
       <family val="2"/>
       <b val="1"/>
       <sz val="15"/>
     </font>
     <font>
       <name val="arial"/>
+      <charset val="1"/>
       <family val="2"/>
       <sz val="12"/>
     </font>
     <font>
       <name val="Arial"/>
+      <charset val="1"/>
       <family val="2"/>
       <sz val="12"/>
     </font>
     <font>
       <name val="Arial"/>
+      <charset val="1"/>
       <family val="2"/>
       <b val="1"/>
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -65,14 +86,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.1499984740745262"/>
-        <bgColor rgb="FFE8F2A1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.1499984740745262"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
   </fills>
@@ -85,91 +100,106 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top style="thin"/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <right style="thin"/>
+      <top style="thin"/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="17">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
+    <cellStyle name="Currency" xfId="3" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Percent" xfId="5" builtinId="5"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -195,7 +225,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FFD9D9D9"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -228,14 +258,6 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -252,44 +274,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -316,32 +338,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -368,24 +372,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -397,309 +383,349 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr filterMode="0">
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:H99"/>
+  <dimension ref="A1:H97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="13.7109375" customWidth="1" min="1" max="1"/>
-    <col width="16.85546875" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="13.7" customWidth="1" style="7" min="1" max="1"/>
+    <col width="16.86" customWidth="1" style="7" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row r="1" ht="26.1" customHeight="1">
-      <c r="A1" s="4" t="inlineStr">
+    <row r="1" ht="26.1" customHeight="1" s="8">
+      <c r="A1" s="9" t="inlineStr">
         <is>
           <t>Výsledky matematického klokana</t>
         </is>
       </c>
-      <c r="B1" s="7" t="n"/>
-      <c r="C1" s="7" t="n"/>
-      <c r="D1" s="7" t="n"/>
-      <c r="E1" s="8" t="n"/>
-    </row>
-    <row r="2" ht="15.6" customHeight="1">
-      <c r="A2" s="5" t="inlineStr">
+      <c r="B1" s="10" t="n"/>
+      <c r="C1" s="10" t="n"/>
+      <c r="D1" s="10" t="n"/>
+      <c r="E1" s="11" t="n"/>
+    </row>
+    <row r="2" ht="15.6" customHeight="1" s="8">
+      <c r="A2" s="12" t="inlineStr">
         <is>
           <t xml:space="preserve"> Škola : </t>
         </is>
       </c>
-      <c r="B2" s="6" t="inlineStr">
+      <c r="B2" s="13" t="inlineStr">
         <is>
           <t>Gymnázium a ZUŠ Šlapanice</t>
         </is>
       </c>
-      <c r="C2" s="7" t="n"/>
-      <c r="D2" s="7" t="n"/>
-      <c r="E2" s="8" t="n"/>
-    </row>
-    <row r="3" ht="15.6" customHeight="1">
-      <c r="A3" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Adresa: </t>
-        </is>
-      </c>
-      <c r="B3" s="6" t="inlineStr"/>
-      <c r="C3" s="7" t="n"/>
-      <c r="D3" s="7" t="n"/>
-      <c r="E3" s="8" t="n"/>
-    </row>
-    <row r="4" ht="16.35" customHeight="1">
-      <c r="A4" s="5" t="inlineStr">
+      <c r="C2" s="10" t="n"/>
+      <c r="D2" s="10" t="n"/>
+      <c r="E2" s="11" t="n"/>
+    </row>
+    <row r="3" ht="15.6" customHeight="1" s="8">
+      <c r="A3" s="12" t="inlineStr">
         <is>
           <t xml:space="preserve">Kategorie : </t>
         </is>
       </c>
-      <c r="B4" s="6" t="inlineStr">
+      <c r="B3" s="13" t="inlineStr">
         <is>
           <t>Cvrček</t>
         </is>
       </c>
-      <c r="C4" s="7" t="n"/>
-      <c r="D4" s="7" t="n"/>
-      <c r="E4" s="8" t="n"/>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="C3" s="10" t="n"/>
+      <c r="D3" s="10" t="n"/>
+      <c r="E3" s="11" t="n"/>
+    </row>
+    <row r="4" ht="16.35" customHeight="1" s="8"/>
+    <row r="5" ht="15" customHeight="1" s="8">
+      <c r="A5" s="14" t="inlineStr">
         <is>
           <t>Celkový počet bodů</t>
         </is>
       </c>
-      <c r="B7" s="8" t="n"/>
-      <c r="D7" s="2" t="inlineStr">
+      <c r="B5" s="11" t="n"/>
+      <c r="D5" s="14" t="inlineStr">
         <is>
           <t xml:space="preserve">Nejleší řešitelé </t>
         </is>
       </c>
-      <c r="E7" s="8" t="n"/>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="3" t="inlineStr">
+      <c r="E5" s="11" t="n"/>
+    </row>
+    <row r="6" ht="15" customHeight="1" s="8">
+      <c r="A6" s="15" t="inlineStr">
         <is>
           <t>Body</t>
         </is>
       </c>
-      <c r="B8" s="3" t="inlineStr">
+      <c r="B6" s="15" t="inlineStr">
         <is>
           <t>Žáci</t>
         </is>
       </c>
-      <c r="D8" s="1" t="inlineStr">
+      <c r="D6" s="16" t="inlineStr">
         <is>
           <t>Jméno</t>
         </is>
       </c>
-      <c r="E8" s="1" t="inlineStr">
+      <c r="E6" s="16" t="inlineStr">
         <is>
           <t>Přijmení</t>
         </is>
       </c>
-      <c r="F8" s="1" t="inlineStr">
+      <c r="F6" s="16" t="inlineStr">
         <is>
           <t>Třída</t>
         </is>
       </c>
-      <c r="G8" s="1" t="inlineStr">
+      <c r="G6" s="16" t="inlineStr">
         <is>
           <t>Datum narození</t>
         </is>
       </c>
-      <c r="H8" s="1" t="inlineStr">
+      <c r="H6" s="16" t="inlineStr">
         <is>
           <t>Body</t>
         </is>
+      </c>
+    </row>
+    <row r="7" ht="12.8" customHeight="1" s="8">
+      <c r="A7" t="n">
+        <v>90</v>
+      </c>
+      <c r="B7" t="n">
+        <v>12727</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Marek</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2022-03-15</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" ht="12.8" customHeight="1" s="8">
+      <c r="A8" t="n">
+        <v>89</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B9" t="n">
-        <v>19119</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Marek</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2022-03-15</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>asd</t>
-        </is>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B10" t="n">
         <v>0</v>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -709,10 +735,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B11" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
@@ -724,37 +750,23 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B14" t="n">
         <v>0</v>
@@ -762,15 +774,15 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B16" t="n">
         <v>0</v>
@@ -778,15 +790,15 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B17" t="n">
-        <v>111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B18" t="n">
         <v>0</v>
@@ -794,7 +806,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B19" t="n">
         <v>0</v>
@@ -802,7 +814,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B20" t="n">
         <v>0</v>
@@ -810,7 +822,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B21" t="n">
         <v>0</v>
@@ -818,7 +830,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B22" t="n">
         <v>0</v>
@@ -826,7 +838,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B23" t="n">
         <v>0</v>
@@ -834,15 +846,15 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B25" t="n">
         <v>0</v>
@@ -850,15 +862,15 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B27" t="n">
         <v>0</v>
@@ -866,15 +878,15 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B28" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B29" t="n">
         <v>0</v>
@@ -882,7 +894,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B30" t="n">
         <v>0</v>
@@ -890,7 +902,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B31" t="n">
         <v>0</v>
@@ -898,7 +910,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B32" t="n">
         <v>0</v>
@@ -906,7 +918,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B33" t="n">
         <v>0</v>
@@ -914,15 +926,15 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B35" t="n">
         <v>0</v>
@@ -930,15 +942,15 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B36" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B37" t="n">
         <v>0</v>
@@ -946,7 +958,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B38" t="n">
         <v>0</v>
@@ -954,7 +966,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B39" t="n">
         <v>0</v>
@@ -962,7 +974,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B40" t="n">
         <v>0</v>
@@ -970,7 +982,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B41" t="n">
         <v>0</v>
@@ -978,7 +990,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B42" t="n">
         <v>0</v>
@@ -986,7 +998,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B43" t="n">
         <v>0</v>
@@ -994,7 +1006,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B44" t="n">
         <v>0</v>
@@ -1002,7 +1014,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B45" t="n">
         <v>0</v>
@@ -1010,7 +1022,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B46" t="n">
         <v>0</v>
@@ -1018,7 +1030,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B47" t="n">
         <v>0</v>
@@ -1026,7 +1038,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B48" t="n">
         <v>0</v>
@@ -1034,7 +1046,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B49" t="n">
         <v>0</v>
@@ -1042,7 +1054,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B50" t="n">
         <v>0</v>
@@ -1050,7 +1062,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B51" t="n">
         <v>0</v>
@@ -1058,7 +1070,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B52" t="n">
         <v>0</v>
@@ -1066,7 +1078,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B53" t="n">
         <v>0</v>
@@ -1074,7 +1086,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B54" t="n">
         <v>0</v>
@@ -1082,7 +1094,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B55" t="n">
         <v>0</v>
@@ -1090,7 +1102,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B56" t="n">
         <v>0</v>
@@ -1098,7 +1110,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B57" t="n">
         <v>0</v>
@@ -1106,7 +1118,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B58" t="n">
         <v>0</v>
@@ -1114,7 +1126,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B59" t="n">
         <v>0</v>
@@ -1122,7 +1134,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B60" t="n">
         <v>0</v>
@@ -1130,7 +1142,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B61" t="n">
         <v>0</v>
@@ -1138,7 +1150,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B62" t="n">
         <v>0</v>
@@ -1146,7 +1158,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B63" t="n">
         <v>0</v>
@@ -1154,7 +1166,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B64" t="n">
         <v>0</v>
@@ -1162,7 +1174,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B65" t="n">
         <v>0</v>
@@ -1170,7 +1182,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B66" t="n">
         <v>0</v>
@@ -1178,7 +1190,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B67" t="n">
         <v>0</v>
@@ -1186,7 +1198,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B68" t="n">
         <v>0</v>
@@ -1194,7 +1206,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B69" t="n">
         <v>0</v>
@@ -1202,7 +1214,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B70" t="n">
         <v>0</v>
@@ -1210,7 +1222,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B71" t="n">
         <v>0</v>
@@ -1218,7 +1230,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B72" t="n">
         <v>0</v>
@@ -1226,7 +1238,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B73" t="n">
         <v>0</v>
@@ -1234,7 +1246,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B74" t="n">
         <v>0</v>
@@ -1242,7 +1254,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B75" t="n">
         <v>0</v>
@@ -1250,7 +1262,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B76" t="n">
         <v>0</v>
@@ -1258,7 +1270,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B77" t="n">
         <v>0</v>
@@ -1266,7 +1278,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B78" t="n">
         <v>0</v>
@@ -1274,7 +1286,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B79" t="n">
         <v>0</v>
@@ -1282,7 +1294,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B80" t="n">
         <v>0</v>
@@ -1290,15 +1302,15 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B81" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B82" t="n">
         <v>0</v>
@@ -1306,15 +1318,15 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B83" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B84" t="n">
         <v>0</v>
@@ -1322,7 +1334,7 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B85" t="n">
         <v>0</v>
@@ -1330,7 +1342,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B86" t="n">
         <v>0</v>
@@ -1338,7 +1350,7 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B87" t="n">
         <v>0</v>
@@ -1346,7 +1358,7 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B88" t="n">
         <v>0</v>
@@ -1354,7 +1366,7 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B89" t="n">
         <v>0</v>
@@ -1362,7 +1374,7 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B90" t="n">
         <v>0</v>
@@ -1370,7 +1382,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B91" t="n">
         <v>0</v>
@@ -1378,7 +1390,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B92" t="n">
         <v>0</v>
@@ -1386,23 +1398,23 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B94" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B95" t="n">
         <v>1</v>
@@ -1410,189 +1422,179 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B96" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B97" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>1</v>
-      </c>
-      <c r="B98" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v>0</v>
-      </c>
-      <c r="B99" t="n">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="5">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D5:E5"/>
   </mergeCells>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup orientation="portrait" paperSize="9" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="1" useFirstPageNumber="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr filterMode="0">
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:H129"/>
+  <dimension ref="A1:H127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="13.7109375" customWidth="1" min="1" max="1"/>
-    <col width="16.85546875" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="13.7" customWidth="1" style="7" min="1" max="1"/>
+    <col width="16.86" customWidth="1" style="7" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row r="1" ht="26.1" customHeight="1">
-      <c r="A1" s="4" t="inlineStr">
+    <row r="1" ht="26.1" customHeight="1" s="8">
+      <c r="A1" s="9" t="inlineStr">
         <is>
           <t>Výsledky matematického klokana</t>
         </is>
       </c>
-      <c r="B1" s="7" t="n"/>
-      <c r="C1" s="7" t="n"/>
-      <c r="D1" s="7" t="n"/>
-      <c r="E1" s="8" t="n"/>
-    </row>
-    <row r="2" ht="15.6" customHeight="1">
-      <c r="A2" s="5" t="inlineStr">
+      <c r="B1" s="10" t="n"/>
+      <c r="C1" s="10" t="n"/>
+      <c r="D1" s="10" t="n"/>
+      <c r="E1" s="11" t="n"/>
+    </row>
+    <row r="2" ht="15.6" customHeight="1" s="8">
+      <c r="A2" s="12" t="inlineStr">
         <is>
           <t xml:space="preserve"> Škola : </t>
         </is>
       </c>
-      <c r="B2" s="6" t="inlineStr">
+      <c r="B2" s="13" t="inlineStr">
         <is>
           <t>Gymnázium a ZUŠ Šlapanice</t>
         </is>
       </c>
-      <c r="C2" s="7" t="n"/>
-      <c r="D2" s="7" t="n"/>
-      <c r="E2" s="8" t="n"/>
-    </row>
-    <row r="3" ht="15.6" customHeight="1">
-      <c r="A3" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Adresa: </t>
-        </is>
-      </c>
-      <c r="B3" s="6" t="inlineStr"/>
-      <c r="C3" s="7" t="n"/>
-      <c r="D3" s="7" t="n"/>
-      <c r="E3" s="8" t="n"/>
-    </row>
-    <row r="4" ht="16.35" customHeight="1">
-      <c r="A4" s="5" t="inlineStr">
+      <c r="C2" s="10" t="n"/>
+      <c r="D2" s="10" t="n"/>
+      <c r="E2" s="11" t="n"/>
+    </row>
+    <row r="3" ht="15.6" customHeight="1" s="8">
+      <c r="A3" s="12" t="inlineStr">
         <is>
           <t xml:space="preserve">Kategorie : </t>
         </is>
       </c>
-      <c r="B4" s="6" t="inlineStr">
+      <c r="B3" s="13" t="inlineStr">
         <is>
           <t>Benamín</t>
         </is>
       </c>
-      <c r="C4" s="7" t="n"/>
-      <c r="D4" s="7" t="n"/>
-      <c r="E4" s="8" t="n"/>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="C3" s="10" t="n"/>
+      <c r="D3" s="10" t="n"/>
+      <c r="E3" s="11" t="n"/>
+    </row>
+    <row r="4" ht="16.35" customHeight="1" s="8"/>
+    <row r="5" ht="15" customHeight="1" s="8">
+      <c r="A5" s="14" t="inlineStr">
         <is>
           <t>Celkový počet bodů</t>
         </is>
       </c>
-      <c r="B7" s="8" t="n"/>
-      <c r="D7" s="2" t="inlineStr">
+      <c r="B5" s="11" t="n"/>
+      <c r="D5" s="14" t="inlineStr">
         <is>
           <t xml:space="preserve">Nejleší řešitelé </t>
         </is>
       </c>
-      <c r="E7" s="8" t="n"/>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="3" t="inlineStr">
+      <c r="E5" s="11" t="n"/>
+    </row>
+    <row r="6" ht="15" customHeight="1" s="8">
+      <c r="A6" s="15" t="inlineStr">
         <is>
           <t>Body</t>
         </is>
       </c>
-      <c r="B8" s="3" t="inlineStr">
+      <c r="B6" s="15" t="inlineStr">
         <is>
           <t>Žáci</t>
         </is>
       </c>
-      <c r="D8" s="1" t="inlineStr">
+      <c r="D6" s="16" t="inlineStr">
         <is>
           <t>Jméno</t>
         </is>
       </c>
-      <c r="E8" s="1" t="inlineStr">
+      <c r="E6" s="16" t="inlineStr">
         <is>
           <t>Přijmení</t>
         </is>
       </c>
-      <c r="F8" s="1" t="inlineStr">
+      <c r="F6" s="16" t="inlineStr">
         <is>
           <t>Třída</t>
         </is>
       </c>
-      <c r="G8" s="1" t="inlineStr">
+      <c r="G6" s="16" t="inlineStr">
         <is>
           <t>Datum narození</t>
         </is>
       </c>
-      <c r="H8" s="1" t="inlineStr">
+      <c r="H6" s="16" t="inlineStr">
         <is>
           <t>Body</t>
         </is>
+      </c>
+    </row>
+    <row r="7" ht="12.8" customHeight="1" s="8">
+      <c r="A7" t="n">
+        <v>120</v>
+      </c>
+      <c r="B7" t="n">
+        <v>9876987</v>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" ht="12.8" customHeight="1" s="8">
+      <c r="A8" t="n">
+        <v>119</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B9" t="n">
-        <v>9876987</v>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B10" t="n">
         <v>0</v>
@@ -1600,7 +1602,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B11" t="n">
         <v>0</v>
@@ -1608,7 +1610,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B12" t="n">
         <v>0</v>
@@ -1616,7 +1618,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B13" t="n">
         <v>0</v>
@@ -1624,7 +1626,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B14" t="n">
         <v>0</v>
@@ -1632,7 +1634,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B15" t="n">
         <v>0</v>
@@ -1640,7 +1642,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B16" t="n">
         <v>0</v>
@@ -1648,7 +1650,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B17" t="n">
         <v>0</v>
@@ -1656,7 +1658,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B18" t="n">
         <v>0</v>
@@ -1664,7 +1666,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B19" t="n">
         <v>0</v>
@@ -1672,7 +1674,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B20" t="n">
         <v>0</v>
@@ -1680,7 +1682,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B21" t="n">
         <v>0</v>
@@ -1688,7 +1690,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B22" t="n">
         <v>0</v>
@@ -1696,7 +1698,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B23" t="n">
         <v>0</v>
@@ -1704,7 +1706,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B24" t="n">
         <v>0</v>
@@ -1712,7 +1714,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B25" t="n">
         <v>0</v>
@@ -1720,7 +1722,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B26" t="n">
         <v>0</v>
@@ -1728,7 +1730,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B27" t="n">
         <v>0</v>
@@ -1736,7 +1738,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B28" t="n">
         <v>0</v>
@@ -1744,7 +1746,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B29" t="n">
         <v>0</v>
@@ -1752,7 +1754,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B30" t="n">
         <v>0</v>
@@ -1760,7 +1762,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B31" t="n">
         <v>0</v>
@@ -1768,7 +1770,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B32" t="n">
         <v>0</v>
@@ -1776,7 +1778,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B33" t="n">
         <v>0</v>
@@ -1784,7 +1786,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B34" t="n">
         <v>0</v>
@@ -1792,7 +1794,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B35" t="n">
         <v>0</v>
@@ -1800,7 +1802,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B36" t="n">
         <v>0</v>
@@ -1808,7 +1810,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B37" t="n">
         <v>0</v>
@@ -1816,7 +1818,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B38" t="n">
         <v>0</v>
@@ -1824,7 +1826,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B39" t="n">
         <v>0</v>
@@ -1832,7 +1834,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B40" t="n">
         <v>0</v>
@@ -1840,7 +1842,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B41" t="n">
         <v>0</v>
@@ -1848,7 +1850,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B42" t="n">
         <v>0</v>
@@ -1856,7 +1858,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B43" t="n">
         <v>0</v>
@@ -1864,7 +1866,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B44" t="n">
         <v>0</v>
@@ -1872,7 +1874,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B45" t="n">
         <v>0</v>
@@ -1880,7 +1882,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B46" t="n">
         <v>0</v>
@@ -1888,7 +1890,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B47" t="n">
         <v>0</v>
@@ -1896,7 +1898,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B48" t="n">
         <v>0</v>
@@ -1904,7 +1906,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B49" t="n">
         <v>0</v>
@@ -1912,7 +1914,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B50" t="n">
         <v>0</v>
@@ -1920,7 +1922,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B51" t="n">
         <v>0</v>
@@ -1928,7 +1930,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B52" t="n">
         <v>0</v>
@@ -1936,7 +1938,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B53" t="n">
         <v>0</v>
@@ -1944,7 +1946,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B54" t="n">
         <v>0</v>
@@ -1952,7 +1954,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B55" t="n">
         <v>0</v>
@@ -1960,7 +1962,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B56" t="n">
         <v>0</v>
@@ -1968,7 +1970,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B57" t="n">
         <v>0</v>
@@ -1976,7 +1978,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B58" t="n">
         <v>0</v>
@@ -1984,7 +1986,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B59" t="n">
         <v>0</v>
@@ -1992,7 +1994,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B60" t="n">
         <v>0</v>
@@ -2000,7 +2002,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B61" t="n">
         <v>0</v>
@@ -2008,7 +2010,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B62" t="n">
         <v>0</v>
@@ -2016,7 +2018,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B63" t="n">
         <v>0</v>
@@ -2024,7 +2026,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B64" t="n">
         <v>0</v>
@@ -2032,7 +2034,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B65" t="n">
         <v>0</v>
@@ -2040,7 +2042,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B66" t="n">
         <v>0</v>
@@ -2048,7 +2050,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B67" t="n">
         <v>0</v>
@@ -2056,7 +2058,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B68" t="n">
         <v>0</v>
@@ -2064,7 +2066,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B69" t="n">
         <v>0</v>
@@ -2072,7 +2074,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B70" t="n">
         <v>0</v>
@@ -2080,7 +2082,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B71" t="n">
         <v>0</v>
@@ -2088,7 +2090,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B72" t="n">
         <v>0</v>
@@ -2096,7 +2098,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B73" t="n">
         <v>0</v>
@@ -2104,7 +2106,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B74" t="n">
         <v>0</v>
@@ -2112,7 +2114,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B75" t="n">
         <v>0</v>
@@ -2120,7 +2122,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B76" t="n">
         <v>0</v>
@@ -2128,7 +2130,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B77" t="n">
         <v>0</v>
@@ -2136,7 +2138,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B78" t="n">
         <v>0</v>
@@ -2144,7 +2146,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B79" t="n">
         <v>0</v>
@@ -2152,7 +2154,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B80" t="n">
         <v>0</v>
@@ -2160,7 +2162,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B81" t="n">
         <v>0</v>
@@ -2168,7 +2170,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B82" t="n">
         <v>0</v>
@@ -2176,7 +2178,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B83" t="n">
         <v>0</v>
@@ -2184,7 +2186,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B84" t="n">
         <v>0</v>
@@ -2192,7 +2194,7 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B85" t="n">
         <v>0</v>
@@ -2200,7 +2202,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B86" t="n">
         <v>0</v>
@@ -2208,7 +2210,7 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B87" t="n">
         <v>0</v>
@@ -2216,7 +2218,7 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B88" t="n">
         <v>0</v>
@@ -2224,7 +2226,7 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B89" t="n">
         <v>0</v>
@@ -2232,7 +2234,7 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B90" t="n">
         <v>0</v>
@@ -2240,7 +2242,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B91" t="n">
         <v>0</v>
@@ -2248,7 +2250,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B92" t="n">
         <v>0</v>
@@ -2256,7 +2258,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B93" t="n">
         <v>0</v>
@@ -2264,7 +2266,7 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B94" t="n">
         <v>0</v>
@@ -2272,7 +2274,7 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B95" t="n">
         <v>0</v>
@@ -2280,7 +2282,7 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B96" t="n">
         <v>0</v>
@@ -2288,7 +2290,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B97" t="n">
         <v>0</v>
@@ -2296,7 +2298,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B98" t="n">
         <v>0</v>
@@ -2304,7 +2306,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B99" t="n">
         <v>0</v>
@@ -2312,7 +2314,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B100" t="n">
         <v>0</v>
@@ -2320,7 +2322,7 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B101" t="n">
         <v>0</v>
@@ -2328,7 +2330,7 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B102" t="n">
         <v>0</v>
@@ -2336,7 +2338,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B103" t="n">
         <v>0</v>
@@ -2344,7 +2346,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B104" t="n">
         <v>0</v>
@@ -2352,7 +2354,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B105" t="n">
         <v>0</v>
@@ -2360,7 +2362,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B106" t="n">
         <v>0</v>
@@ -2368,7 +2370,7 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B107" t="n">
         <v>0</v>
@@ -2376,7 +2378,7 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B108" t="n">
         <v>0</v>
@@ -2384,7 +2386,7 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B109" t="n">
         <v>0</v>
@@ -2392,7 +2394,7 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B110" t="n">
         <v>0</v>
@@ -2400,7 +2402,7 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B111" t="n">
         <v>0</v>
@@ -2408,7 +2410,7 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B112" t="n">
         <v>0</v>
@@ -2416,7 +2418,7 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B113" t="n">
         <v>0</v>
@@ -2424,7 +2426,7 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B114" t="n">
         <v>0</v>
@@ -2432,7 +2434,7 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B115" t="n">
         <v>0</v>
@@ -2440,7 +2442,7 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B116" t="n">
         <v>0</v>
@@ -2448,7 +2450,7 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B117" t="n">
         <v>0</v>
@@ -2456,7 +2458,7 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B118" t="n">
         <v>0</v>
@@ -2464,7 +2466,7 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B119" t="n">
         <v>0</v>
@@ -2472,7 +2474,7 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B120" t="n">
         <v>0</v>
@@ -2480,7 +2482,7 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B121" t="n">
         <v>0</v>
@@ -2488,7 +2490,7 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B122" t="n">
         <v>0</v>
@@ -2496,7 +2498,7 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B123" t="n">
         <v>0</v>
@@ -2504,7 +2506,7 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B124" t="n">
         <v>0</v>
@@ -2512,7 +2514,7 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B125" t="n">
         <v>0</v>
@@ -2520,7 +2522,7 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B126" t="n">
         <v>0</v>
@@ -2528,197 +2530,187 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B127" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" t="n">
-        <v>1</v>
-      </c>
-      <c r="B128" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="n">
-        <v>0</v>
-      </c>
-      <c r="B129" t="n">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="5">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D5:E5"/>
   </mergeCells>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup orientation="portrait" paperSize="9" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="1" useFirstPageNumber="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr filterMode="0">
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:H129"/>
+  <dimension ref="A1:H127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="13.7109375" customWidth="1" min="1" max="1"/>
-    <col width="16.85546875" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="13.7" customWidth="1" style="7" min="1" max="1"/>
+    <col width="16.86" customWidth="1" style="7" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row r="1" ht="26.1" customHeight="1">
-      <c r="A1" s="4" t="inlineStr">
+    <row r="1" ht="26.1" customHeight="1" s="8">
+      <c r="A1" s="9" t="inlineStr">
         <is>
           <t>Výsledky matematického klokana</t>
         </is>
       </c>
-      <c r="B1" s="7" t="n"/>
-      <c r="C1" s="7" t="n"/>
-      <c r="D1" s="7" t="n"/>
-      <c r="E1" s="8" t="n"/>
-    </row>
-    <row r="2" ht="15.6" customHeight="1">
-      <c r="A2" s="5" t="inlineStr">
+      <c r="B1" s="10" t="n"/>
+      <c r="C1" s="10" t="n"/>
+      <c r="D1" s="10" t="n"/>
+      <c r="E1" s="11" t="n"/>
+    </row>
+    <row r="2" ht="15.6" customHeight="1" s="8">
+      <c r="A2" s="12" t="inlineStr">
         <is>
           <t xml:space="preserve"> Škola : </t>
         </is>
       </c>
-      <c r="B2" s="6" t="inlineStr">
+      <c r="B2" s="13" t="inlineStr">
         <is>
           <t>Gymnázium a ZUŠ Šlapanice</t>
         </is>
       </c>
-      <c r="C2" s="7" t="n"/>
-      <c r="D2" s="7" t="n"/>
-      <c r="E2" s="8" t="n"/>
-    </row>
-    <row r="3" ht="15.6" customHeight="1">
-      <c r="A3" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Adresa: </t>
-        </is>
-      </c>
-      <c r="B3" s="6" t="inlineStr"/>
-      <c r="C3" s="7" t="n"/>
-      <c r="D3" s="7" t="n"/>
-      <c r="E3" s="8" t="n"/>
-    </row>
-    <row r="4" ht="16.35" customHeight="1">
-      <c r="A4" s="5" t="inlineStr">
+      <c r="C2" s="10" t="n"/>
+      <c r="D2" s="10" t="n"/>
+      <c r="E2" s="11" t="n"/>
+    </row>
+    <row r="3" ht="15.6" customHeight="1" s="8">
+      <c r="A3" s="12" t="inlineStr">
         <is>
           <t xml:space="preserve">Kategorie : </t>
         </is>
       </c>
-      <c r="B4" s="6" t="inlineStr">
+      <c r="B3" s="13" t="inlineStr">
         <is>
           <t>Junior</t>
         </is>
       </c>
-      <c r="C4" s="7" t="n"/>
-      <c r="D4" s="7" t="n"/>
-      <c r="E4" s="8" t="n"/>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="C3" s="10" t="n"/>
+      <c r="D3" s="10" t="n"/>
+      <c r="E3" s="11" t="n"/>
+    </row>
+    <row r="4" ht="16.35" customHeight="1" s="8"/>
+    <row r="5" ht="15" customHeight="1" s="8">
+      <c r="A5" s="14" t="inlineStr">
         <is>
           <t>Celkový počet bodů</t>
         </is>
       </c>
-      <c r="B7" s="8" t="n"/>
-      <c r="D7" s="2" t="inlineStr">
+      <c r="B5" s="11" t="n"/>
+      <c r="D5" s="14" t="inlineStr">
         <is>
           <t xml:space="preserve">Nejleší řešitelé </t>
         </is>
       </c>
-      <c r="E7" s="8" t="n"/>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="3" t="inlineStr">
+      <c r="E5" s="11" t="n"/>
+    </row>
+    <row r="6" ht="15" customHeight="1" s="8">
+      <c r="A6" s="15" t="inlineStr">
         <is>
           <t>Body</t>
         </is>
       </c>
-      <c r="B8" s="3" t="inlineStr">
+      <c r="B6" s="15" t="inlineStr">
         <is>
           <t>Žáci</t>
         </is>
       </c>
-      <c r="D8" s="1" t="inlineStr">
+      <c r="D6" s="16" t="inlineStr">
         <is>
           <t>Jméno</t>
         </is>
       </c>
-      <c r="E8" s="1" t="inlineStr">
+      <c r="E6" s="16" t="inlineStr">
         <is>
           <t>Přijmení</t>
         </is>
       </c>
-      <c r="F8" s="1" t="inlineStr">
+      <c r="F6" s="16" t="inlineStr">
         <is>
           <t>Třída</t>
         </is>
       </c>
-      <c r="G8" s="1" t="inlineStr">
+      <c r="G6" s="16" t="inlineStr">
         <is>
           <t>Datum narození</t>
         </is>
       </c>
-      <c r="H8" s="1" t="inlineStr">
+      <c r="H6" s="16" t="inlineStr">
         <is>
           <t>Body</t>
         </is>
+      </c>
+    </row>
+    <row r="7" ht="12.8" customHeight="1" s="8">
+      <c r="A7" t="n">
+        <v>120</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2022-03-02</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>hhhh</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" ht="12.8" customHeight="1" s="8">
+      <c r="A8" t="n">
+        <v>119</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B9" t="n">
         <v>0</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>s</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2022-03-02</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>hhhh</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B10" t="n">
         <v>0</v>
@@ -2726,15 +2718,15 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B12" t="n">
         <v>0</v>
@@ -2742,15 +2734,15 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B14" t="n">
         <v>0</v>
@@ -2758,7 +2750,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B15" t="n">
         <v>0</v>
@@ -2766,7 +2758,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B16" t="n">
         <v>0</v>
@@ -2774,7 +2766,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B17" t="n">
         <v>0</v>
@@ -2782,7 +2774,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B18" t="n">
         <v>0</v>
@@ -2790,7 +2782,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B19" t="n">
         <v>0</v>
@@ -2798,7 +2790,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B20" t="n">
         <v>0</v>
@@ -2806,7 +2798,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B21" t="n">
         <v>0</v>
@@ -2814,7 +2806,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B22" t="n">
         <v>0</v>
@@ -2822,7 +2814,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B23" t="n">
         <v>0</v>
@@ -2830,7 +2822,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B24" t="n">
         <v>0</v>
@@ -2838,7 +2830,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B25" t="n">
         <v>0</v>
@@ -2846,7 +2838,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B26" t="n">
         <v>0</v>
@@ -2854,7 +2846,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B27" t="n">
         <v>0</v>
@@ -2862,7 +2854,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B28" t="n">
         <v>0</v>
@@ -2870,7 +2862,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B29" t="n">
         <v>0</v>
@@ -2878,7 +2870,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B30" t="n">
         <v>0</v>
@@ -2886,7 +2878,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B31" t="n">
         <v>0</v>
@@ -2894,15 +2886,15 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B33" t="n">
         <v>0</v>
@@ -2910,23 +2902,23 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B34" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B36" t="n">
         <v>0</v>
@@ -2934,15 +2926,15 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B37" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B38" t="n">
         <v>0</v>
@@ -2950,7 +2942,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B39" t="n">
         <v>0</v>
@@ -2958,7 +2950,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B40" t="n">
         <v>0</v>
@@ -2966,7 +2958,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B41" t="n">
         <v>0</v>
@@ -2974,7 +2966,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B42" t="n">
         <v>0</v>
@@ -2982,7 +2974,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B43" t="n">
         <v>0</v>
@@ -2990,7 +2982,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B44" t="n">
         <v>0</v>
@@ -2998,7 +2990,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B45" t="n">
         <v>0</v>
@@ -3006,7 +2998,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B46" t="n">
         <v>0</v>
@@ -3014,7 +3006,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B47" t="n">
         <v>0</v>
@@ -3022,7 +3014,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B48" t="n">
         <v>0</v>
@@ -3030,7 +3022,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B49" t="n">
         <v>0</v>
@@ -3038,7 +3030,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B50" t="n">
         <v>0</v>
@@ -3046,7 +3038,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B51" t="n">
         <v>0</v>
@@ -3054,7 +3046,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B52" t="n">
         <v>0</v>
@@ -3062,7 +3054,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B53" t="n">
         <v>0</v>
@@ -3070,7 +3062,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B54" t="n">
         <v>0</v>
@@ -3078,7 +3070,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B55" t="n">
         <v>0</v>
@@ -3086,7 +3078,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B56" t="n">
         <v>0</v>
@@ -3094,7 +3086,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B57" t="n">
         <v>0</v>
@@ -3102,7 +3094,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B58" t="n">
         <v>0</v>
@@ -3110,7 +3102,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B59" t="n">
         <v>0</v>
@@ -3118,7 +3110,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B60" t="n">
         <v>0</v>
@@ -3126,7 +3118,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B61" t="n">
         <v>0</v>
@@ -3134,7 +3126,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B62" t="n">
         <v>0</v>
@@ -3142,7 +3134,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B63" t="n">
         <v>0</v>
@@ -3150,7 +3142,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B64" t="n">
         <v>0</v>
@@ -3158,7 +3150,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B65" t="n">
         <v>0</v>
@@ -3166,7 +3158,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B66" t="n">
         <v>0</v>
@@ -3174,7 +3166,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B67" t="n">
         <v>0</v>
@@ -3182,7 +3174,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B68" t="n">
         <v>0</v>
@@ -3190,7 +3182,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B69" t="n">
         <v>0</v>
@@ -3198,7 +3190,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B70" t="n">
         <v>0</v>
@@ -3206,7 +3198,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B71" t="n">
         <v>0</v>
@@ -3214,7 +3206,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B72" t="n">
         <v>0</v>
@@ -3222,7 +3214,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B73" t="n">
         <v>0</v>
@@ -3230,7 +3222,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B74" t="n">
         <v>0</v>
@@ -3238,7 +3230,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B75" t="n">
         <v>0</v>
@@ -3246,7 +3238,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B76" t="n">
         <v>0</v>
@@ -3254,7 +3246,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B77" t="n">
         <v>0</v>
@@ -3262,7 +3254,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B78" t="n">
         <v>0</v>
@@ -3270,7 +3262,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B79" t="n">
         <v>0</v>
@@ -3278,7 +3270,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B80" t="n">
         <v>0</v>
@@ -3286,7 +3278,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B81" t="n">
         <v>0</v>
@@ -3294,7 +3286,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B82" t="n">
         <v>0</v>
@@ -3302,7 +3294,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B83" t="n">
         <v>0</v>
@@ -3310,7 +3302,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B84" t="n">
         <v>0</v>
@@ -3318,7 +3310,7 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B85" t="n">
         <v>0</v>
@@ -3326,7 +3318,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B86" t="n">
         <v>0</v>
@@ -3334,7 +3326,7 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B87" t="n">
         <v>0</v>
@@ -3342,7 +3334,7 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B88" t="n">
         <v>0</v>
@@ -3350,7 +3342,7 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B89" t="n">
         <v>0</v>
@@ -3358,7 +3350,7 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B90" t="n">
         <v>0</v>
@@ -3366,7 +3358,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B91" t="n">
         <v>0</v>
@@ -3374,7 +3366,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B92" t="n">
         <v>0</v>
@@ -3382,7 +3374,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B93" t="n">
         <v>0</v>
@@ -3390,7 +3382,7 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B94" t="n">
         <v>0</v>
@@ -3398,7 +3390,7 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B95" t="n">
         <v>0</v>
@@ -3406,7 +3398,7 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B96" t="n">
         <v>0</v>
@@ -3414,7 +3406,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B97" t="n">
         <v>0</v>
@@ -3422,7 +3414,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B98" t="n">
         <v>0</v>
@@ -3430,7 +3422,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B99" t="n">
         <v>0</v>
@@ -3438,7 +3430,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B100" t="n">
         <v>0</v>
@@ -3446,7 +3438,7 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B101" t="n">
         <v>0</v>
@@ -3454,7 +3446,7 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B102" t="n">
         <v>0</v>
@@ -3462,7 +3454,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B103" t="n">
         <v>0</v>
@@ -3470,7 +3462,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B104" t="n">
         <v>0</v>
@@ -3478,7 +3470,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B105" t="n">
         <v>0</v>
@@ -3486,7 +3478,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B106" t="n">
         <v>0</v>
@@ -3494,7 +3486,7 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B107" t="n">
         <v>0</v>
@@ -3502,7 +3494,7 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B108" t="n">
         <v>0</v>
@@ -3510,7 +3502,7 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B109" t="n">
         <v>0</v>
@@ -3518,7 +3510,7 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B110" t="n">
         <v>0</v>
@@ -3526,7 +3518,7 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B111" t="n">
         <v>0</v>
@@ -3534,7 +3526,7 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B112" t="n">
         <v>0</v>
@@ -3542,7 +3534,7 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B113" t="n">
         <v>0</v>
@@ -3550,7 +3542,7 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B114" t="n">
         <v>0</v>
@@ -3558,7 +3550,7 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B115" t="n">
         <v>0</v>
@@ -3566,7 +3558,7 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B116" t="n">
         <v>0</v>
@@ -3574,7 +3566,7 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B117" t="n">
         <v>0</v>
@@ -3582,7 +3574,7 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B118" t="n">
         <v>0</v>
@@ -3590,7 +3582,7 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B119" t="n">
         <v>0</v>
@@ -3598,7 +3590,7 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B120" t="n">
         <v>0</v>
@@ -3606,7 +3598,7 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B121" t="n">
         <v>0</v>
@@ -3614,7 +3606,7 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B122" t="n">
         <v>0</v>
@@ -3622,7 +3614,7 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B123" t="n">
         <v>0</v>
@@ -3630,7 +3622,7 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B124" t="n">
         <v>0</v>
@@ -3638,7 +3630,7 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B125" t="n">
         <v>0</v>
@@ -3646,7 +3638,7 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B126" t="n">
         <v>0</v>
@@ -3654,196 +3646,186 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B127" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" t="n">
-        <v>1</v>
-      </c>
-      <c r="B128" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="n">
-        <v>0</v>
-      </c>
-      <c r="B129" t="n">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="5">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D5:E5"/>
   </mergeCells>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup orientation="portrait" paperSize="9" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="1" useFirstPageNumber="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr filterMode="0">
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:H129"/>
+  <dimension ref="A1:H127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="13.7109375" customWidth="1" min="1" max="1"/>
-    <col width="16.85546875" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="13.7" customWidth="1" style="7" min="1" max="1"/>
+    <col width="16.86" customWidth="1" style="7" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row r="1" ht="26.1" customHeight="1">
-      <c r="A1" s="4" t="inlineStr">
+    <row r="1" ht="26.1" customHeight="1" s="8">
+      <c r="A1" s="9" t="inlineStr">
         <is>
           <t>Výsledky matematického klokana</t>
         </is>
       </c>
-      <c r="B1" s="7" t="n"/>
-      <c r="C1" s="7" t="n"/>
-      <c r="D1" s="7" t="n"/>
-      <c r="E1" s="8" t="n"/>
-    </row>
-    <row r="2" ht="15.6" customHeight="1">
-      <c r="A2" s="5" t="inlineStr">
+      <c r="B1" s="10" t="n"/>
+      <c r="C1" s="10" t="n"/>
+      <c r="D1" s="10" t="n"/>
+      <c r="E1" s="11" t="n"/>
+    </row>
+    <row r="2" ht="15.6" customHeight="1" s="8">
+      <c r="A2" s="12" t="inlineStr">
         <is>
           <t xml:space="preserve"> Škola : </t>
         </is>
       </c>
-      <c r="B2" s="6" t="inlineStr">
+      <c r="B2" s="13" t="inlineStr">
         <is>
           <t>Gymnázium a ZUŠ Šlapanice</t>
         </is>
       </c>
-      <c r="C2" s="7" t="n"/>
-      <c r="D2" s="7" t="n"/>
-      <c r="E2" s="8" t="n"/>
-    </row>
-    <row r="3" ht="15.6" customHeight="1">
-      <c r="A3" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Adresa: </t>
-        </is>
-      </c>
-      <c r="B3" s="6" t="inlineStr"/>
-      <c r="C3" s="7" t="n"/>
-      <c r="D3" s="7" t="n"/>
-      <c r="E3" s="8" t="n"/>
-    </row>
-    <row r="4" ht="16.35" customHeight="1">
-      <c r="A4" s="5" t="inlineStr">
+      <c r="C2" s="10" t="n"/>
+      <c r="D2" s="10" t="n"/>
+      <c r="E2" s="11" t="n"/>
+    </row>
+    <row r="3" ht="15.6" customHeight="1" s="8">
+      <c r="A3" s="12" t="inlineStr">
         <is>
           <t xml:space="preserve">Kategorie : </t>
         </is>
       </c>
-      <c r="B4" s="6" t="inlineStr">
+      <c r="B3" s="13" t="inlineStr">
         <is>
           <t>Kadet</t>
         </is>
       </c>
-      <c r="C4" s="7" t="n"/>
-      <c r="D4" s="7" t="n"/>
-      <c r="E4" s="8" t="n"/>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="C3" s="10" t="n"/>
+      <c r="D3" s="10" t="n"/>
+      <c r="E3" s="11" t="n"/>
+    </row>
+    <row r="4" ht="16.35" customHeight="1" s="8"/>
+    <row r="5" ht="15" customHeight="1" s="8">
+      <c r="A5" s="14" t="inlineStr">
         <is>
           <t>Celkový počet bodů</t>
         </is>
       </c>
-      <c r="B7" s="8" t="n"/>
-      <c r="D7" s="2" t="inlineStr">
+      <c r="B5" s="11" t="n"/>
+      <c r="D5" s="14" t="inlineStr">
         <is>
           <t xml:space="preserve">Nejleší řešitelé </t>
         </is>
       </c>
-      <c r="E7" s="8" t="n"/>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="3" t="inlineStr">
+      <c r="E5" s="11" t="n"/>
+    </row>
+    <row r="6" ht="15" customHeight="1" s="8">
+      <c r="A6" s="15" t="inlineStr">
         <is>
           <t>Body</t>
         </is>
       </c>
-      <c r="B8" s="3" t="inlineStr">
+      <c r="B6" s="15" t="inlineStr">
         <is>
           <t>Žáci</t>
         </is>
       </c>
-      <c r="D8" s="1" t="inlineStr">
+      <c r="D6" s="16" t="inlineStr">
         <is>
           <t>Jméno</t>
         </is>
       </c>
-      <c r="E8" s="1" t="inlineStr">
+      <c r="E6" s="16" t="inlineStr">
         <is>
           <t>Přijmení</t>
         </is>
       </c>
-      <c r="F8" s="1" t="inlineStr">
+      <c r="F6" s="16" t="inlineStr">
         <is>
           <t>Třída</t>
         </is>
       </c>
-      <c r="G8" s="1" t="inlineStr">
+      <c r="G6" s="16" t="inlineStr">
         <is>
           <t>Datum narození</t>
         </is>
       </c>
-      <c r="H8" s="1" t="inlineStr">
+      <c r="H6" s="16" t="inlineStr">
         <is>
           <t>Body</t>
         </is>
+      </c>
+    </row>
+    <row r="7" ht="12.8" customHeight="1" s="8">
+      <c r="A7" t="n">
+        <v>120</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" ht="12.8" customHeight="1" s="8">
+      <c r="A8" t="n">
+        <v>119</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B11" t="n">
         <v>0</v>
@@ -3851,7 +3833,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B12" t="n">
         <v>0</v>
@@ -3859,7 +3841,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B13" t="n">
         <v>0</v>
@@ -3867,7 +3849,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B14" t="n">
         <v>0</v>
@@ -3875,7 +3857,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B15" t="n">
         <v>0</v>
@@ -3883,7 +3865,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B16" t="n">
         <v>0</v>
@@ -3891,7 +3873,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B17" t="n">
         <v>0</v>
@@ -3899,7 +3881,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B18" t="n">
         <v>0</v>
@@ -3907,7 +3889,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B19" t="n">
         <v>0</v>
@@ -3915,7 +3897,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B20" t="n">
         <v>0</v>
@@ -3923,7 +3905,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B21" t="n">
         <v>0</v>
@@ -3931,7 +3913,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B22" t="n">
         <v>0</v>
@@ -3939,7 +3921,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B23" t="n">
         <v>0</v>
@@ -3947,7 +3929,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B24" t="n">
         <v>0</v>
@@ -3955,7 +3937,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B25" t="n">
         <v>0</v>
@@ -3963,7 +3945,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B26" t="n">
         <v>0</v>
@@ -3971,7 +3953,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B27" t="n">
         <v>0</v>
@@ -3979,7 +3961,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B28" t="n">
         <v>0</v>
@@ -3987,7 +3969,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B29" t="n">
         <v>0</v>
@@ -3995,7 +3977,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B30" t="n">
         <v>0</v>
@@ -4003,7 +3985,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B31" t="n">
         <v>0</v>
@@ -4011,7 +3993,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B32" t="n">
         <v>0</v>
@@ -4019,7 +4001,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B33" t="n">
         <v>0</v>
@@ -4027,7 +4009,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B34" t="n">
         <v>0</v>
@@ -4035,7 +4017,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B35" t="n">
         <v>0</v>
@@ -4043,7 +4025,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B36" t="n">
         <v>0</v>
@@ -4051,7 +4033,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B37" t="n">
         <v>0</v>
@@ -4059,7 +4041,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B38" t="n">
         <v>0</v>
@@ -4067,7 +4049,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B39" t="n">
         <v>0</v>
@@ -4075,7 +4057,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B40" t="n">
         <v>0</v>
@@ -4083,7 +4065,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B41" t="n">
         <v>0</v>
@@ -4091,7 +4073,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B42" t="n">
         <v>0</v>
@@ -4099,7 +4081,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B43" t="n">
         <v>0</v>
@@ -4107,7 +4089,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B44" t="n">
         <v>0</v>
@@ -4115,7 +4097,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B45" t="n">
         <v>0</v>
@@ -4123,7 +4105,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B46" t="n">
         <v>0</v>
@@ -4131,7 +4113,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B47" t="n">
         <v>0</v>
@@ -4139,7 +4121,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B48" t="n">
         <v>0</v>
@@ -4147,7 +4129,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B49" t="n">
         <v>0</v>
@@ -4155,7 +4137,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B50" t="n">
         <v>0</v>
@@ -4163,7 +4145,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B51" t="n">
         <v>0</v>
@@ -4171,7 +4153,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B52" t="n">
         <v>0</v>
@@ -4179,7 +4161,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B53" t="n">
         <v>0</v>
@@ -4187,7 +4169,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B54" t="n">
         <v>0</v>
@@ -4195,7 +4177,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B55" t="n">
         <v>0</v>
@@ -4203,7 +4185,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B56" t="n">
         <v>0</v>
@@ -4211,7 +4193,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B57" t="n">
         <v>0</v>
@@ -4219,7 +4201,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B58" t="n">
         <v>0</v>
@@ -4227,7 +4209,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B59" t="n">
         <v>0</v>
@@ -4235,7 +4217,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B60" t="n">
         <v>0</v>
@@ -4243,7 +4225,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B61" t="n">
         <v>0</v>
@@ -4251,7 +4233,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B62" t="n">
         <v>0</v>
@@ -4259,7 +4241,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B63" t="n">
         <v>0</v>
@@ -4267,7 +4249,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B64" t="n">
         <v>0</v>
@@ -4275,7 +4257,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B65" t="n">
         <v>0</v>
@@ -4283,7 +4265,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B66" t="n">
         <v>0</v>
@@ -4291,7 +4273,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B67" t="n">
         <v>0</v>
@@ -4299,7 +4281,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B68" t="n">
         <v>0</v>
@@ -4307,7 +4289,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B69" t="n">
         <v>0</v>
@@ -4315,7 +4297,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B70" t="n">
         <v>0</v>
@@ -4323,7 +4305,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B71" t="n">
         <v>0</v>
@@ -4331,7 +4313,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B72" t="n">
         <v>0</v>
@@ -4339,7 +4321,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B73" t="n">
         <v>0</v>
@@ -4347,7 +4329,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B74" t="n">
         <v>0</v>
@@ -4355,7 +4337,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B75" t="n">
         <v>0</v>
@@ -4363,7 +4345,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B76" t="n">
         <v>0</v>
@@ -4371,7 +4353,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B77" t="n">
         <v>0</v>
@@ -4379,7 +4361,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B78" t="n">
         <v>0</v>
@@ -4387,7 +4369,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B79" t="n">
         <v>0</v>
@@ -4395,7 +4377,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B80" t="n">
         <v>0</v>
@@ -4403,7 +4385,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B81" t="n">
         <v>0</v>
@@ -4411,7 +4393,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B82" t="n">
         <v>0</v>
@@ -4419,7 +4401,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B83" t="n">
         <v>0</v>
@@ -4427,7 +4409,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B84" t="n">
         <v>0</v>
@@ -4435,7 +4417,7 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B85" t="n">
         <v>0</v>
@@ -4443,7 +4425,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B86" t="n">
         <v>0</v>
@@ -4451,7 +4433,7 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B87" t="n">
         <v>0</v>
@@ -4459,7 +4441,7 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B88" t="n">
         <v>0</v>
@@ -4467,7 +4449,7 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B89" t="n">
         <v>0</v>
@@ -4475,7 +4457,7 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B90" t="n">
         <v>0</v>
@@ -4483,7 +4465,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B91" t="n">
         <v>0</v>
@@ -4491,7 +4473,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B92" t="n">
         <v>0</v>
@@ -4499,7 +4481,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B93" t="n">
         <v>0</v>
@@ -4507,7 +4489,7 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B94" t="n">
         <v>0</v>
@@ -4515,7 +4497,7 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B95" t="n">
         <v>0</v>
@@ -4523,7 +4505,7 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B96" t="n">
         <v>0</v>
@@ -4531,7 +4513,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B97" t="n">
         <v>0</v>
@@ -4539,7 +4521,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B98" t="n">
         <v>0</v>
@@ -4547,7 +4529,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B99" t="n">
         <v>0</v>
@@ -4555,7 +4537,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B100" t="n">
         <v>0</v>
@@ -4563,7 +4545,7 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B101" t="n">
         <v>0</v>
@@ -4571,7 +4553,7 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B102" t="n">
         <v>0</v>
@@ -4579,7 +4561,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B103" t="n">
         <v>0</v>
@@ -4587,7 +4569,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B104" t="n">
         <v>0</v>
@@ -4595,7 +4577,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B105" t="n">
         <v>0</v>
@@ -4603,7 +4585,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B106" t="n">
         <v>0</v>
@@ -4611,7 +4593,7 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B107" t="n">
         <v>0</v>
@@ -4619,7 +4601,7 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B108" t="n">
         <v>0</v>
@@ -4627,7 +4609,7 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B109" t="n">
         <v>0</v>
@@ -4635,7 +4617,7 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B110" t="n">
         <v>0</v>
@@ -4643,7 +4625,7 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B111" t="n">
         <v>0</v>
@@ -4651,7 +4633,7 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B112" t="n">
         <v>0</v>
@@ -4659,7 +4641,7 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B113" t="n">
         <v>0</v>
@@ -4667,7 +4649,7 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B114" t="n">
         <v>0</v>
@@ -4675,7 +4657,7 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B115" t="n">
         <v>0</v>
@@ -4683,7 +4665,7 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B116" t="n">
         <v>0</v>
@@ -4691,7 +4673,7 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B117" t="n">
         <v>0</v>
@@ -4699,7 +4681,7 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B118" t="n">
         <v>0</v>
@@ -4707,7 +4689,7 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B119" t="n">
         <v>0</v>
@@ -4715,7 +4697,7 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B120" t="n">
         <v>0</v>
@@ -4723,7 +4705,7 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B121" t="n">
         <v>0</v>
@@ -4731,7 +4713,7 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B122" t="n">
         <v>0</v>
@@ -4739,7 +4721,7 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B123" t="n">
         <v>0</v>
@@ -4747,7 +4729,7 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B124" t="n">
         <v>0</v>
@@ -4755,7 +4737,7 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B125" t="n">
         <v>0</v>
@@ -4763,7 +4745,7 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B126" t="n">
         <v>0</v>
@@ -4771,181 +4753,171 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B127" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" t="n">
-        <v>1</v>
-      </c>
-      <c r="B128" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="n">
-        <v>0</v>
-      </c>
-      <c r="B129" t="n">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="5">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D5:E5"/>
   </mergeCells>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup orientation="portrait" paperSize="9" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="1" useFirstPageNumber="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr filterMode="0">
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:H129"/>
+  <dimension ref="A1:H127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="13.7109375" customWidth="1" min="1" max="1"/>
-    <col width="16.85546875" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="13.7" customWidth="1" style="7" min="1" max="1"/>
+    <col width="16.86" customWidth="1" style="7" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row r="1" ht="26.1" customHeight="1">
-      <c r="A1" s="4" t="inlineStr">
+    <row r="1" ht="26.1" customHeight="1" s="8">
+      <c r="A1" s="9" t="inlineStr">
         <is>
           <t>Výsledky matematického klokana</t>
         </is>
       </c>
-      <c r="B1" s="7" t="n"/>
-      <c r="C1" s="7" t="n"/>
-      <c r="D1" s="7" t="n"/>
-      <c r="E1" s="8" t="n"/>
-    </row>
-    <row r="2" ht="15.6" customHeight="1">
-      <c r="A2" s="5" t="inlineStr">
+      <c r="B1" s="10" t="n"/>
+      <c r="C1" s="10" t="n"/>
+      <c r="D1" s="10" t="n"/>
+      <c r="E1" s="11" t="n"/>
+    </row>
+    <row r="2" ht="15.6" customHeight="1" s="8">
+      <c r="A2" s="12" t="inlineStr">
         <is>
           <t xml:space="preserve"> Škola : </t>
         </is>
       </c>
-      <c r="B2" s="6" t="inlineStr">
+      <c r="B2" s="13" t="inlineStr">
         <is>
           <t>Gymnázium a ZUŠ Šlapanice</t>
         </is>
       </c>
-      <c r="C2" s="7" t="n"/>
-      <c r="D2" s="7" t="n"/>
-      <c r="E2" s="8" t="n"/>
-    </row>
-    <row r="3" ht="15.6" customHeight="1">
-      <c r="A3" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Adresa: </t>
-        </is>
-      </c>
-      <c r="B3" s="6" t="inlineStr"/>
-      <c r="C3" s="7" t="n"/>
-      <c r="D3" s="7" t="n"/>
-      <c r="E3" s="8" t="n"/>
-    </row>
-    <row r="4" ht="16.35" customHeight="1">
-      <c r="A4" s="5" t="inlineStr">
+      <c r="C2" s="10" t="n"/>
+      <c r="D2" s="10" t="n"/>
+      <c r="E2" s="11" t="n"/>
+    </row>
+    <row r="3" ht="15.6" customHeight="1" s="8">
+      <c r="A3" s="12" t="inlineStr">
         <is>
           <t xml:space="preserve">Kategorie : </t>
         </is>
       </c>
-      <c r="B4" s="6" t="inlineStr">
+      <c r="B3" s="13" t="inlineStr">
         <is>
           <t>Klokánek</t>
         </is>
       </c>
-      <c r="C4" s="7" t="n"/>
-      <c r="D4" s="7" t="n"/>
-      <c r="E4" s="8" t="n"/>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="C3" s="10" t="n"/>
+      <c r="D3" s="10" t="n"/>
+      <c r="E3" s="11" t="n"/>
+    </row>
+    <row r="4" ht="16.35" customHeight="1" s="8"/>
+    <row r="5" ht="15" customHeight="1" s="8">
+      <c r="A5" s="14" t="inlineStr">
         <is>
           <t>Celkový počet bodů</t>
         </is>
       </c>
-      <c r="B7" s="8" t="n"/>
-      <c r="D7" s="2" t="inlineStr">
+      <c r="B5" s="11" t="n"/>
+      <c r="D5" s="14" t="inlineStr">
         <is>
           <t xml:space="preserve">Nejleší řešitelé </t>
         </is>
       </c>
-      <c r="E7" s="8" t="n"/>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="3" t="inlineStr">
+      <c r="E5" s="11" t="n"/>
+    </row>
+    <row r="6" ht="15" customHeight="1" s="8">
+      <c r="A6" s="15" t="inlineStr">
         <is>
           <t>Body</t>
         </is>
       </c>
-      <c r="B8" s="3" t="inlineStr">
+      <c r="B6" s="15" t="inlineStr">
         <is>
           <t>Žáci</t>
         </is>
       </c>
-      <c r="D8" s="1" t="inlineStr">
+      <c r="D6" s="16" t="inlineStr">
         <is>
           <t>Jméno</t>
         </is>
       </c>
-      <c r="E8" s="1" t="inlineStr">
+      <c r="E6" s="16" t="inlineStr">
         <is>
           <t>Přijmení</t>
         </is>
       </c>
-      <c r="F8" s="1" t="inlineStr">
+      <c r="F6" s="16" t="inlineStr">
         <is>
           <t>Třída</t>
         </is>
       </c>
-      <c r="G8" s="1" t="inlineStr">
+      <c r="G6" s="16" t="inlineStr">
         <is>
           <t>Datum narození</t>
         </is>
       </c>
-      <c r="H8" s="1" t="inlineStr">
+      <c r="H6" s="16" t="inlineStr">
         <is>
           <t>Body</t>
         </is>
+      </c>
+    </row>
+    <row r="7" ht="12.8" customHeight="1" s="8">
+      <c r="A7" t="n">
+        <v>120</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" ht="12.8" customHeight="1" s="8">
+      <c r="A8" t="n">
+        <v>119</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B10" t="n">
         <v>0</v>
@@ -4953,7 +4925,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B11" t="n">
         <v>0</v>
@@ -4961,7 +4933,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B12" t="n">
         <v>0</v>
@@ -4969,7 +4941,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B13" t="n">
         <v>0</v>
@@ -4977,7 +4949,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B14" t="n">
         <v>0</v>
@@ -4985,7 +4957,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B15" t="n">
         <v>0</v>
@@ -4993,7 +4965,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B16" t="n">
         <v>0</v>
@@ -5001,7 +4973,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B17" t="n">
         <v>0</v>
@@ -5009,7 +4981,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B18" t="n">
         <v>0</v>
@@ -5017,7 +4989,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B19" t="n">
         <v>0</v>
@@ -5025,7 +4997,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B20" t="n">
         <v>0</v>
@@ -5033,7 +5005,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B21" t="n">
         <v>0</v>
@@ -5041,7 +5013,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B22" t="n">
         <v>0</v>
@@ -5049,7 +5021,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B23" t="n">
         <v>0</v>
@@ -5057,7 +5029,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B24" t="n">
         <v>0</v>
@@ -5065,7 +5037,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B25" t="n">
         <v>0</v>
@@ -5073,7 +5045,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B26" t="n">
         <v>0</v>
@@ -5081,7 +5053,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B27" t="n">
         <v>0</v>
@@ -5089,7 +5061,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B28" t="n">
         <v>0</v>
@@ -5097,7 +5069,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B29" t="n">
         <v>0</v>
@@ -5105,7 +5077,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B30" t="n">
         <v>0</v>
@@ -5113,7 +5085,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B31" t="n">
         <v>0</v>
@@ -5121,7 +5093,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B32" t="n">
         <v>0</v>
@@ -5129,7 +5101,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B33" t="n">
         <v>0</v>
@@ -5137,7 +5109,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B34" t="n">
         <v>0</v>
@@ -5145,7 +5117,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B35" t="n">
         <v>0</v>
@@ -5153,7 +5125,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B36" t="n">
         <v>0</v>
@@ -5161,7 +5133,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B37" t="n">
         <v>0</v>
@@ -5169,7 +5141,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B38" t="n">
         <v>0</v>
@@ -5177,7 +5149,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B39" t="n">
         <v>0</v>
@@ -5185,7 +5157,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B40" t="n">
         <v>0</v>
@@ -5193,7 +5165,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B41" t="n">
         <v>0</v>
@@ -5201,7 +5173,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B42" t="n">
         <v>0</v>
@@ -5209,7 +5181,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B43" t="n">
         <v>0</v>
@@ -5217,7 +5189,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B44" t="n">
         <v>0</v>
@@ -5225,7 +5197,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B45" t="n">
         <v>0</v>
@@ -5233,7 +5205,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B46" t="n">
         <v>0</v>
@@ -5241,7 +5213,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B47" t="n">
         <v>0</v>
@@ -5249,7 +5221,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B48" t="n">
         <v>0</v>
@@ -5257,7 +5229,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B49" t="n">
         <v>0</v>
@@ -5265,7 +5237,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B50" t="n">
         <v>0</v>
@@ -5273,7 +5245,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B51" t="n">
         <v>0</v>
@@ -5281,7 +5253,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B52" t="n">
         <v>0</v>
@@ -5289,7 +5261,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B53" t="n">
         <v>0</v>
@@ -5297,7 +5269,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B54" t="n">
         <v>0</v>
@@ -5305,7 +5277,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B55" t="n">
         <v>0</v>
@@ -5313,7 +5285,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B56" t="n">
         <v>0</v>
@@ -5321,7 +5293,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B57" t="n">
         <v>0</v>
@@ -5329,7 +5301,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B58" t="n">
         <v>0</v>
@@ -5337,7 +5309,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B59" t="n">
         <v>0</v>
@@ -5345,7 +5317,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B60" t="n">
         <v>0</v>
@@ -5353,7 +5325,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B61" t="n">
         <v>0</v>
@@ -5361,7 +5333,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B62" t="n">
         <v>0</v>
@@ -5369,7 +5341,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B63" t="n">
         <v>0</v>
@@ -5377,7 +5349,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B64" t="n">
         <v>0</v>
@@ -5385,7 +5357,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B65" t="n">
         <v>0</v>
@@ -5393,7 +5365,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B66" t="n">
         <v>0</v>
@@ -5401,7 +5373,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B67" t="n">
         <v>0</v>
@@ -5409,7 +5381,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B68" t="n">
         <v>0</v>
@@ -5417,7 +5389,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B69" t="n">
         <v>0</v>
@@ -5425,7 +5397,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B70" t="n">
         <v>0</v>
@@ -5433,7 +5405,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B71" t="n">
         <v>0</v>
@@ -5441,7 +5413,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B72" t="n">
         <v>0</v>
@@ -5449,7 +5421,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B73" t="n">
         <v>0</v>
@@ -5457,7 +5429,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B74" t="n">
         <v>0</v>
@@ -5465,7 +5437,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B75" t="n">
         <v>0</v>
@@ -5473,7 +5445,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B76" t="n">
         <v>0</v>
@@ -5481,7 +5453,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B77" t="n">
         <v>0</v>
@@ -5489,7 +5461,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B78" t="n">
         <v>0</v>
@@ -5497,7 +5469,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B79" t="n">
         <v>0</v>
@@ -5505,7 +5477,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B80" t="n">
         <v>0</v>
@@ -5513,7 +5485,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B81" t="n">
         <v>0</v>
@@ -5521,7 +5493,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B82" t="n">
         <v>0</v>
@@ -5529,7 +5501,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B83" t="n">
         <v>0</v>
@@ -5537,7 +5509,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B84" t="n">
         <v>0</v>
@@ -5545,7 +5517,7 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B85" t="n">
         <v>0</v>
@@ -5553,7 +5525,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B86" t="n">
         <v>0</v>
@@ -5561,7 +5533,7 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B87" t="n">
         <v>0</v>
@@ -5569,7 +5541,7 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B88" t="n">
         <v>0</v>
@@ -5577,7 +5549,7 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B89" t="n">
         <v>0</v>
@@ -5585,7 +5557,7 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B90" t="n">
         <v>0</v>
@@ -5593,7 +5565,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B91" t="n">
         <v>0</v>
@@ -5601,7 +5573,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B92" t="n">
         <v>0</v>
@@ -5609,7 +5581,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B93" t="n">
         <v>0</v>
@@ -5617,7 +5589,7 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B94" t="n">
         <v>0</v>
@@ -5625,7 +5597,7 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B95" t="n">
         <v>0</v>
@@ -5633,7 +5605,7 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B96" t="n">
         <v>0</v>
@@ -5641,7 +5613,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B97" t="n">
         <v>0</v>
@@ -5649,7 +5621,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B98" t="n">
         <v>0</v>
@@ -5657,7 +5629,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B99" t="n">
         <v>0</v>
@@ -5665,7 +5637,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B100" t="n">
         <v>0</v>
@@ -5673,7 +5645,7 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B101" t="n">
         <v>0</v>
@@ -5681,7 +5653,7 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B102" t="n">
         <v>0</v>
@@ -5689,7 +5661,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B103" t="n">
         <v>0</v>
@@ -5697,7 +5669,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B104" t="n">
         <v>0</v>
@@ -5705,7 +5677,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B105" t="n">
         <v>0</v>
@@ -5713,7 +5685,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B106" t="n">
         <v>0</v>
@@ -5721,7 +5693,7 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B107" t="n">
         <v>0</v>
@@ -5729,7 +5701,7 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B108" t="n">
         <v>0</v>
@@ -5737,7 +5709,7 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B109" t="n">
         <v>0</v>
@@ -5745,7 +5717,7 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B110" t="n">
         <v>0</v>
@@ -5753,7 +5725,7 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B111" t="n">
         <v>0</v>
@@ -5761,7 +5733,7 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B112" t="n">
         <v>0</v>
@@ -5769,7 +5741,7 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B113" t="n">
         <v>0</v>
@@ -5777,7 +5749,7 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B114" t="n">
         <v>0</v>
@@ -5785,7 +5757,7 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B115" t="n">
         <v>0</v>
@@ -5793,7 +5765,7 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B116" t="n">
         <v>0</v>
@@ -5801,7 +5773,7 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B117" t="n">
         <v>0</v>
@@ -5809,7 +5781,7 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B118" t="n">
         <v>0</v>
@@ -5817,7 +5789,7 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B119" t="n">
         <v>0</v>
@@ -5825,7 +5797,7 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B120" t="n">
         <v>0</v>
@@ -5833,7 +5805,7 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B121" t="n">
         <v>0</v>
@@ -5841,7 +5813,7 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B122" t="n">
         <v>0</v>
@@ -5849,7 +5821,7 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B123" t="n">
         <v>0</v>
@@ -5857,7 +5829,7 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B124" t="n">
         <v>0</v>
@@ -5865,7 +5837,7 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B125" t="n">
         <v>0</v>
@@ -5873,7 +5845,7 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B126" t="n">
         <v>0</v>
@@ -5881,181 +5853,171 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B127" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" t="n">
-        <v>1</v>
-      </c>
-      <c r="B128" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="n">
-        <v>0</v>
-      </c>
-      <c r="B129" t="n">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="5">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D5:E5"/>
   </mergeCells>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup orientation="portrait" paperSize="9" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="1" useFirstPageNumber="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr filterMode="0">
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:H129"/>
+  <dimension ref="A1:H127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="13.7109375" customWidth="1" min="1" max="1"/>
-    <col width="16.85546875" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="13.7" customWidth="1" style="7" min="1" max="1"/>
+    <col width="16.86" customWidth="1" style="7" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row r="1" ht="26.1" customHeight="1">
-      <c r="A1" s="4" t="inlineStr">
+    <row r="1" ht="26.1" customHeight="1" s="8">
+      <c r="A1" s="9" t="inlineStr">
         <is>
           <t>Výsledky matematického klokana</t>
         </is>
       </c>
-      <c r="B1" s="7" t="n"/>
-      <c r="C1" s="7" t="n"/>
-      <c r="D1" s="7" t="n"/>
-      <c r="E1" s="8" t="n"/>
-    </row>
-    <row r="2" ht="15.6" customHeight="1">
-      <c r="A2" s="5" t="inlineStr">
+      <c r="B1" s="10" t="n"/>
+      <c r="C1" s="10" t="n"/>
+      <c r="D1" s="10" t="n"/>
+      <c r="E1" s="11" t="n"/>
+    </row>
+    <row r="2" ht="15.6" customHeight="1" s="8">
+      <c r="A2" s="12" t="inlineStr">
         <is>
           <t xml:space="preserve"> Škola : </t>
         </is>
       </c>
-      <c r="B2" s="6" t="inlineStr">
+      <c r="B2" s="13" t="inlineStr">
         <is>
           <t>Gymnázium a ZUŠ Šlapanice</t>
         </is>
       </c>
-      <c r="C2" s="7" t="n"/>
-      <c r="D2" s="7" t="n"/>
-      <c r="E2" s="8" t="n"/>
-    </row>
-    <row r="3" ht="15.6" customHeight="1">
-      <c r="A3" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Adresa: </t>
-        </is>
-      </c>
-      <c r="B3" s="6" t="inlineStr"/>
-      <c r="C3" s="7" t="n"/>
-      <c r="D3" s="7" t="n"/>
-      <c r="E3" s="8" t="n"/>
-    </row>
-    <row r="4" ht="16.35" customHeight="1">
-      <c r="A4" s="5" t="inlineStr">
+      <c r="C2" s="10" t="n"/>
+      <c r="D2" s="10" t="n"/>
+      <c r="E2" s="11" t="n"/>
+    </row>
+    <row r="3" ht="15.6" customHeight="1" s="8">
+      <c r="A3" s="12" t="inlineStr">
         <is>
           <t xml:space="preserve">Kategorie : </t>
         </is>
       </c>
-      <c r="B4" s="6" t="inlineStr">
+      <c r="B3" s="13" t="inlineStr">
         <is>
           <t>Student</t>
         </is>
       </c>
-      <c r="C4" s="7" t="n"/>
-      <c r="D4" s="7" t="n"/>
-      <c r="E4" s="8" t="n"/>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="C3" s="10" t="n"/>
+      <c r="D3" s="10" t="n"/>
+      <c r="E3" s="11" t="n"/>
+    </row>
+    <row r="4" ht="16.35" customHeight="1" s="8"/>
+    <row r="5" ht="15" customHeight="1" s="8">
+      <c r="A5" s="14" t="inlineStr">
         <is>
           <t>Celkový počet bodů</t>
         </is>
       </c>
-      <c r="B7" s="8" t="n"/>
-      <c r="D7" s="2" t="inlineStr">
+      <c r="B5" s="11" t="n"/>
+      <c r="D5" s="14" t="inlineStr">
         <is>
           <t xml:space="preserve">Nejleší řešitelé </t>
         </is>
       </c>
-      <c r="E7" s="8" t="n"/>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="3" t="inlineStr">
+      <c r="E5" s="11" t="n"/>
+    </row>
+    <row r="6" ht="15" customHeight="1" s="8">
+      <c r="A6" s="15" t="inlineStr">
         <is>
           <t>Body</t>
         </is>
       </c>
-      <c r="B8" s="3" t="inlineStr">
+      <c r="B6" s="15" t="inlineStr">
         <is>
           <t>Žáci</t>
         </is>
       </c>
-      <c r="D8" s="1" t="inlineStr">
+      <c r="D6" s="16" t="inlineStr">
         <is>
           <t>Jméno</t>
         </is>
       </c>
-      <c r="E8" s="1" t="inlineStr">
+      <c r="E6" s="16" t="inlineStr">
         <is>
           <t>Přijmení</t>
         </is>
       </c>
-      <c r="F8" s="1" t="inlineStr">
+      <c r="F6" s="16" t="inlineStr">
         <is>
           <t>Třída</t>
         </is>
       </c>
-      <c r="G8" s="1" t="inlineStr">
+      <c r="G6" s="16" t="inlineStr">
         <is>
           <t>Datum narození</t>
         </is>
       </c>
-      <c r="H8" s="1" t="inlineStr">
+      <c r="H6" s="16" t="inlineStr">
         <is>
           <t>Body</t>
         </is>
+      </c>
+    </row>
+    <row r="7" ht="12.8" customHeight="1" s="8">
+      <c r="A7" t="n">
+        <v>120</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" ht="12.8" customHeight="1" s="8">
+      <c r="A8" t="n">
+        <v>119</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B10" t="n">
         <v>0</v>
@@ -6063,7 +6025,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B11" t="n">
         <v>0</v>
@@ -6071,7 +6033,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B12" t="n">
         <v>0</v>
@@ -6079,7 +6041,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B13" t="n">
         <v>0</v>
@@ -6087,7 +6049,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B14" t="n">
         <v>0</v>
@@ -6095,7 +6057,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B15" t="n">
         <v>0</v>
@@ -6103,7 +6065,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B16" t="n">
         <v>0</v>
@@ -6111,7 +6073,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B17" t="n">
         <v>0</v>
@@ -6119,7 +6081,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B18" t="n">
         <v>0</v>
@@ -6127,7 +6089,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B19" t="n">
         <v>0</v>
@@ -6135,7 +6097,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B20" t="n">
         <v>0</v>
@@ -6143,7 +6105,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B21" t="n">
         <v>0</v>
@@ -6151,7 +6113,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B22" t="n">
         <v>0</v>
@@ -6159,7 +6121,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B23" t="n">
         <v>0</v>
@@ -6167,7 +6129,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B24" t="n">
         <v>0</v>
@@ -6175,7 +6137,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B25" t="n">
         <v>0</v>
@@ -6183,7 +6145,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B26" t="n">
         <v>0</v>
@@ -6191,7 +6153,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B27" t="n">
         <v>0</v>
@@ -6199,7 +6161,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B28" t="n">
         <v>0</v>
@@ -6207,7 +6169,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B29" t="n">
         <v>0</v>
@@ -6215,7 +6177,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B30" t="n">
         <v>0</v>
@@ -6223,7 +6185,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B31" t="n">
         <v>0</v>
@@ -6231,7 +6193,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B32" t="n">
         <v>0</v>
@@ -6239,7 +6201,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B33" t="n">
         <v>0</v>
@@ -6247,7 +6209,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B34" t="n">
         <v>0</v>
@@ -6255,7 +6217,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B35" t="n">
         <v>0</v>
@@ -6263,7 +6225,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B36" t="n">
         <v>0</v>
@@ -6271,7 +6233,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B37" t="n">
         <v>0</v>
@@ -6279,7 +6241,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B38" t="n">
         <v>0</v>
@@ -6287,7 +6249,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B39" t="n">
         <v>0</v>
@@ -6295,7 +6257,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B40" t="n">
         <v>0</v>
@@ -6303,7 +6265,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B41" t="n">
         <v>0</v>
@@ -6311,7 +6273,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B42" t="n">
         <v>0</v>
@@ -6319,7 +6281,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B43" t="n">
         <v>0</v>
@@ -6327,7 +6289,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B44" t="n">
         <v>0</v>
@@ -6335,7 +6297,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B45" t="n">
         <v>0</v>
@@ -6343,7 +6305,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B46" t="n">
         <v>0</v>
@@ -6351,7 +6313,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B47" t="n">
         <v>0</v>
@@ -6359,7 +6321,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B48" t="n">
         <v>0</v>
@@ -6367,7 +6329,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B49" t="n">
         <v>0</v>
@@ -6375,7 +6337,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B50" t="n">
         <v>0</v>
@@ -6383,7 +6345,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B51" t="n">
         <v>0</v>
@@ -6391,7 +6353,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B52" t="n">
         <v>0</v>
@@ -6399,7 +6361,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B53" t="n">
         <v>0</v>
@@ -6407,7 +6369,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B54" t="n">
         <v>0</v>
@@ -6415,7 +6377,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B55" t="n">
         <v>0</v>
@@ -6423,7 +6385,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B56" t="n">
         <v>0</v>
@@ -6431,7 +6393,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B57" t="n">
         <v>0</v>
@@ -6439,7 +6401,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B58" t="n">
         <v>0</v>
@@ -6447,7 +6409,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B59" t="n">
         <v>0</v>
@@ -6455,7 +6417,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B60" t="n">
         <v>0</v>
@@ -6463,7 +6425,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B61" t="n">
         <v>0</v>
@@ -6471,7 +6433,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B62" t="n">
         <v>0</v>
@@ -6479,7 +6441,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B63" t="n">
         <v>0</v>
@@ -6487,7 +6449,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B64" t="n">
         <v>0</v>
@@ -6495,7 +6457,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B65" t="n">
         <v>0</v>
@@ -6503,7 +6465,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B66" t="n">
         <v>0</v>
@@ -6511,7 +6473,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B67" t="n">
         <v>0</v>
@@ -6519,7 +6481,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B68" t="n">
         <v>0</v>
@@ -6527,7 +6489,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B69" t="n">
         <v>0</v>
@@ -6535,7 +6497,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B70" t="n">
         <v>0</v>
@@ -6543,7 +6505,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B71" t="n">
         <v>0</v>
@@ -6551,7 +6513,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B72" t="n">
         <v>0</v>
@@ -6559,7 +6521,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B73" t="n">
         <v>0</v>
@@ -6567,7 +6529,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B74" t="n">
         <v>0</v>
@@ -6575,7 +6537,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B75" t="n">
         <v>0</v>
@@ -6583,7 +6545,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B76" t="n">
         <v>0</v>
@@ -6591,7 +6553,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B77" t="n">
         <v>0</v>
@@ -6599,7 +6561,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B78" t="n">
         <v>0</v>
@@ -6607,7 +6569,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B79" t="n">
         <v>0</v>
@@ -6615,7 +6577,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B80" t="n">
         <v>0</v>
@@ -6623,7 +6585,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B81" t="n">
         <v>0</v>
@@ -6631,7 +6593,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B82" t="n">
         <v>0</v>
@@ -6639,7 +6601,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B83" t="n">
         <v>0</v>
@@ -6647,7 +6609,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B84" t="n">
         <v>0</v>
@@ -6655,7 +6617,7 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B85" t="n">
         <v>0</v>
@@ -6663,7 +6625,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B86" t="n">
         <v>0</v>
@@ -6671,7 +6633,7 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B87" t="n">
         <v>0</v>
@@ -6679,7 +6641,7 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B88" t="n">
         <v>0</v>
@@ -6687,7 +6649,7 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B89" t="n">
         <v>0</v>
@@ -6695,7 +6657,7 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B90" t="n">
         <v>0</v>
@@ -6703,7 +6665,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B91" t="n">
         <v>0</v>
@@ -6711,7 +6673,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B92" t="n">
         <v>0</v>
@@ -6719,7 +6681,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B93" t="n">
         <v>0</v>
@@ -6727,7 +6689,7 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B94" t="n">
         <v>0</v>
@@ -6735,7 +6697,7 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B95" t="n">
         <v>0</v>
@@ -6743,7 +6705,7 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B96" t="n">
         <v>0</v>
@@ -6751,7 +6713,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B97" t="n">
         <v>0</v>
@@ -6759,7 +6721,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B98" t="n">
         <v>0</v>
@@ -6767,7 +6729,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B99" t="n">
         <v>0</v>
@@ -6775,7 +6737,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B100" t="n">
         <v>0</v>
@@ -6783,7 +6745,7 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B101" t="n">
         <v>0</v>
@@ -6791,7 +6753,7 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B102" t="n">
         <v>0</v>
@@ -6799,7 +6761,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B103" t="n">
         <v>0</v>
@@ -6807,7 +6769,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B104" t="n">
         <v>0</v>
@@ -6815,7 +6777,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B105" t="n">
         <v>0</v>
@@ -6823,7 +6785,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B106" t="n">
         <v>0</v>
@@ -6831,7 +6793,7 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B107" t="n">
         <v>0</v>
@@ -6839,7 +6801,7 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B108" t="n">
         <v>0</v>
@@ -6847,7 +6809,7 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B109" t="n">
         <v>0</v>
@@ -6855,7 +6817,7 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B110" t="n">
         <v>0</v>
@@ -6863,7 +6825,7 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B111" t="n">
         <v>0</v>
@@ -6871,7 +6833,7 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B112" t="n">
         <v>0</v>
@@ -6879,7 +6841,7 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B113" t="n">
         <v>0</v>
@@ -6887,7 +6849,7 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B114" t="n">
         <v>0</v>
@@ -6895,7 +6857,7 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B115" t="n">
         <v>0</v>
@@ -6903,7 +6865,7 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B116" t="n">
         <v>0</v>
@@ -6911,7 +6873,7 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B117" t="n">
         <v>0</v>
@@ -6919,7 +6881,7 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B118" t="n">
         <v>0</v>
@@ -6927,7 +6889,7 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B119" t="n">
         <v>0</v>
@@ -6935,7 +6897,7 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B120" t="n">
         <v>0</v>
@@ -6943,7 +6905,7 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B121" t="n">
         <v>0</v>
@@ -6951,7 +6913,7 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B122" t="n">
         <v>0</v>
@@ -6959,7 +6921,7 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B123" t="n">
         <v>0</v>
@@ -6967,7 +6929,7 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B124" t="n">
         <v>0</v>
@@ -6975,7 +6937,7 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B125" t="n">
         <v>0</v>
@@ -6983,7 +6945,7 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B126" t="n">
         <v>0</v>
@@ -6991,38 +6953,22 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B127" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" t="n">
-        <v>1</v>
-      </c>
-      <c r="B128" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="n">
-        <v>0</v>
-      </c>
-      <c r="B129" t="n">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="5">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D5:E5"/>
   </mergeCells>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup orientation="portrait" paperSize="9" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="1" useFirstPageNumber="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
 </worksheet>
 </file>
--- a/export/Gymnázium a ZUŠ Šlapanice.xlsx
+++ b/export/Gymnázium a ZUŠ Šlapanice.xlsx
@@ -671,7 +671,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>Pavelka</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>asd</t>
+          <t>V2C</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -695,13 +695,6 @@
       <c r="B8" t="n">
         <v>0</v>
       </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -710,13 +703,6 @@
       <c r="B9" t="n">
         <v>37</v>
       </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -725,26 +711,12 @@
       <c r="B10" t="n">
         <v>0</v>
       </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>86</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="n">
         <v>0</v>
       </c>
     </row>
